--- a/Asuransi dan Dapen.xlsx
+++ b/Asuransi dan Dapen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00006243\My Documents\00_2017_MBD\00 SecOps\Sistem\CSA\2024\Release 9\Data Maintenance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REGULATORY DEVELOPMENT\MAINTENANCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D160AED9-ED83-4A9F-B4C0-5FDFBBAA030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29C0F1B-28B7-4A1C-BE0D-DD4DC3311B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F04FF659-41FF-40C7-A142-7043F87FE3C1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F04FF659-41FF-40C7-A142-7043F87FE3C1}"/>
   </bookViews>
   <sheets>
     <sheet name="ASURANSI" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="101">
   <si>
     <t>Pfolio Code</t>
   </si>
@@ -333,13 +331,22 @@
   </si>
   <si>
     <t xml:space="preserve">Pfolio Name </t>
+  </si>
+  <si>
+    <t>Mandatory, but free text</t>
+  </si>
+  <si>
+    <t>Mandatory and must be numeric</t>
+  </si>
+  <si>
+    <t>Mandatory, length must be 6 characters, and alphanumeric</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,16 +367,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -377,18 +397,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,463 +768,480 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823FB248-0619-4CF1-9612-ECC382614C1C}">
-  <dimension ref="A2:F40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" customWidth="1"/>
-    <col min="255" max="255" width="13.33203125" customWidth="1"/>
-    <col min="256" max="256" width="9.109375" customWidth="1"/>
-    <col min="257" max="257" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="16.109375" customWidth="1"/>
-    <col min="260" max="260" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="27.109375" customWidth="1"/>
-    <col min="511" max="511" width="13.33203125" customWidth="1"/>
-    <col min="512" max="512" width="9.109375" customWidth="1"/>
-    <col min="513" max="513" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="16.109375" customWidth="1"/>
-    <col min="516" max="516" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="27.109375" customWidth="1"/>
-    <col min="767" max="767" width="13.33203125" customWidth="1"/>
-    <col min="768" max="768" width="9.109375" customWidth="1"/>
-    <col min="769" max="769" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="16.109375" customWidth="1"/>
-    <col min="772" max="772" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="27.109375" customWidth="1"/>
-    <col min="1023" max="1023" width="13.33203125" customWidth="1"/>
-    <col min="1024" max="1024" width="9.109375" customWidth="1"/>
-    <col min="1025" max="1025" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1026" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="16.109375" customWidth="1"/>
-    <col min="1028" max="1028" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="27.109375" customWidth="1"/>
-    <col min="1279" max="1279" width="13.33203125" customWidth="1"/>
-    <col min="1280" max="1280" width="9.109375" customWidth="1"/>
-    <col min="1281" max="1281" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1282" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="16.109375" customWidth="1"/>
-    <col min="1284" max="1284" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="27.109375" customWidth="1"/>
-    <col min="1535" max="1535" width="13.33203125" customWidth="1"/>
-    <col min="1536" max="1536" width="9.109375" customWidth="1"/>
-    <col min="1537" max="1537" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1538" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="16.109375" customWidth="1"/>
-    <col min="1540" max="1540" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="27.109375" customWidth="1"/>
-    <col min="1791" max="1791" width="13.33203125" customWidth="1"/>
-    <col min="1792" max="1792" width="9.109375" customWidth="1"/>
-    <col min="1793" max="1793" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1794" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="16.109375" customWidth="1"/>
-    <col min="1796" max="1796" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="27.109375" customWidth="1"/>
-    <col min="2047" max="2047" width="13.33203125" customWidth="1"/>
-    <col min="2048" max="2048" width="9.109375" customWidth="1"/>
-    <col min="2049" max="2049" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2050" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="16.109375" customWidth="1"/>
-    <col min="2052" max="2052" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="27.109375" customWidth="1"/>
-    <col min="2303" max="2303" width="13.33203125" customWidth="1"/>
-    <col min="2304" max="2304" width="9.109375" customWidth="1"/>
-    <col min="2305" max="2305" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2306" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="16.109375" customWidth="1"/>
-    <col min="2308" max="2308" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="27.109375" customWidth="1"/>
-    <col min="2559" max="2559" width="13.33203125" customWidth="1"/>
-    <col min="2560" max="2560" width="9.109375" customWidth="1"/>
-    <col min="2561" max="2561" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2562" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="16.109375" customWidth="1"/>
-    <col min="2564" max="2564" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="27.109375" customWidth="1"/>
-    <col min="2815" max="2815" width="13.33203125" customWidth="1"/>
-    <col min="2816" max="2816" width="9.109375" customWidth="1"/>
-    <col min="2817" max="2817" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2818" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="16.109375" customWidth="1"/>
-    <col min="2820" max="2820" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="27.109375" customWidth="1"/>
-    <col min="3071" max="3071" width="13.33203125" customWidth="1"/>
-    <col min="3072" max="3072" width="9.109375" customWidth="1"/>
-    <col min="3073" max="3073" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3074" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="16.109375" customWidth="1"/>
-    <col min="3076" max="3076" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="27.109375" customWidth="1"/>
-    <col min="3327" max="3327" width="13.33203125" customWidth="1"/>
-    <col min="3328" max="3328" width="9.109375" customWidth="1"/>
-    <col min="3329" max="3329" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3330" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="16.109375" customWidth="1"/>
-    <col min="3332" max="3332" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="27.109375" customWidth="1"/>
-    <col min="3583" max="3583" width="13.33203125" customWidth="1"/>
-    <col min="3584" max="3584" width="9.109375" customWidth="1"/>
-    <col min="3585" max="3585" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3586" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="16.109375" customWidth="1"/>
-    <col min="3588" max="3588" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="27.109375" customWidth="1"/>
-    <col min="3839" max="3839" width="13.33203125" customWidth="1"/>
-    <col min="3840" max="3840" width="9.109375" customWidth="1"/>
-    <col min="3841" max="3841" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3842" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="16.109375" customWidth="1"/>
-    <col min="3844" max="3844" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="27.109375" customWidth="1"/>
-    <col min="4095" max="4095" width="13.33203125" customWidth="1"/>
-    <col min="4096" max="4096" width="9.109375" customWidth="1"/>
-    <col min="4097" max="4097" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4098" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="16.109375" customWidth="1"/>
-    <col min="4100" max="4100" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="27.109375" customWidth="1"/>
-    <col min="4351" max="4351" width="13.33203125" customWidth="1"/>
-    <col min="4352" max="4352" width="9.109375" customWidth="1"/>
-    <col min="4353" max="4353" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4354" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="16.109375" customWidth="1"/>
-    <col min="4356" max="4356" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="27.109375" customWidth="1"/>
-    <col min="4607" max="4607" width="13.33203125" customWidth="1"/>
-    <col min="4608" max="4608" width="9.109375" customWidth="1"/>
-    <col min="4609" max="4609" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4610" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="16.109375" customWidth="1"/>
-    <col min="4612" max="4612" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="27.109375" customWidth="1"/>
-    <col min="4863" max="4863" width="13.33203125" customWidth="1"/>
-    <col min="4864" max="4864" width="9.109375" customWidth="1"/>
-    <col min="4865" max="4865" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4866" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="16.109375" customWidth="1"/>
-    <col min="4868" max="4868" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="27.109375" customWidth="1"/>
-    <col min="5119" max="5119" width="13.33203125" customWidth="1"/>
-    <col min="5120" max="5120" width="9.109375" customWidth="1"/>
-    <col min="5121" max="5121" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5122" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="16.109375" customWidth="1"/>
-    <col min="5124" max="5124" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="27.109375" customWidth="1"/>
-    <col min="5375" max="5375" width="13.33203125" customWidth="1"/>
-    <col min="5376" max="5376" width="9.109375" customWidth="1"/>
-    <col min="5377" max="5377" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5378" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="16.109375" customWidth="1"/>
-    <col min="5380" max="5380" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="27.109375" customWidth="1"/>
-    <col min="5631" max="5631" width="13.33203125" customWidth="1"/>
-    <col min="5632" max="5632" width="9.109375" customWidth="1"/>
-    <col min="5633" max="5633" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5634" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="16.109375" customWidth="1"/>
-    <col min="5636" max="5636" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="27.109375" customWidth="1"/>
-    <col min="5887" max="5887" width="13.33203125" customWidth="1"/>
-    <col min="5888" max="5888" width="9.109375" customWidth="1"/>
-    <col min="5889" max="5889" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5890" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="16.109375" customWidth="1"/>
-    <col min="5892" max="5892" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="27.109375" customWidth="1"/>
-    <col min="6143" max="6143" width="13.33203125" customWidth="1"/>
-    <col min="6144" max="6144" width="9.109375" customWidth="1"/>
-    <col min="6145" max="6145" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6146" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="16.109375" customWidth="1"/>
-    <col min="6148" max="6148" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="27.109375" customWidth="1"/>
-    <col min="6399" max="6399" width="13.33203125" customWidth="1"/>
-    <col min="6400" max="6400" width="9.109375" customWidth="1"/>
-    <col min="6401" max="6401" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6402" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="16.109375" customWidth="1"/>
-    <col min="6404" max="6404" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="27.109375" customWidth="1"/>
-    <col min="6655" max="6655" width="13.33203125" customWidth="1"/>
-    <col min="6656" max="6656" width="9.109375" customWidth="1"/>
-    <col min="6657" max="6657" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6658" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="16.109375" customWidth="1"/>
-    <col min="6660" max="6660" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="27.109375" customWidth="1"/>
-    <col min="6911" max="6911" width="13.33203125" customWidth="1"/>
-    <col min="6912" max="6912" width="9.109375" customWidth="1"/>
-    <col min="6913" max="6913" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6914" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="16.109375" customWidth="1"/>
-    <col min="6916" max="6916" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="27.109375" customWidth="1"/>
-    <col min="7167" max="7167" width="13.33203125" customWidth="1"/>
-    <col min="7168" max="7168" width="9.109375" customWidth="1"/>
-    <col min="7169" max="7169" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7170" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="16.109375" customWidth="1"/>
-    <col min="7172" max="7172" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="27.109375" customWidth="1"/>
-    <col min="7423" max="7423" width="13.33203125" customWidth="1"/>
-    <col min="7424" max="7424" width="9.109375" customWidth="1"/>
-    <col min="7425" max="7425" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7426" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="16.109375" customWidth="1"/>
-    <col min="7428" max="7428" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="27.109375" customWidth="1"/>
-    <col min="7679" max="7679" width="13.33203125" customWidth="1"/>
-    <col min="7680" max="7680" width="9.109375" customWidth="1"/>
-    <col min="7681" max="7681" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7682" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="16.109375" customWidth="1"/>
-    <col min="7684" max="7684" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="27.109375" customWidth="1"/>
-    <col min="7935" max="7935" width="13.33203125" customWidth="1"/>
-    <col min="7936" max="7936" width="9.109375" customWidth="1"/>
-    <col min="7937" max="7937" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7938" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="16.109375" customWidth="1"/>
-    <col min="7940" max="7940" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="27.109375" customWidth="1"/>
-    <col min="8191" max="8191" width="13.33203125" customWidth="1"/>
-    <col min="8192" max="8192" width="9.109375" customWidth="1"/>
-    <col min="8193" max="8193" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8194" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="16.109375" customWidth="1"/>
-    <col min="8196" max="8196" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="27.109375" customWidth="1"/>
-    <col min="8447" max="8447" width="13.33203125" customWidth="1"/>
-    <col min="8448" max="8448" width="9.109375" customWidth="1"/>
-    <col min="8449" max="8449" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8450" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="16.109375" customWidth="1"/>
-    <col min="8452" max="8452" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="27.109375" customWidth="1"/>
-    <col min="8703" max="8703" width="13.33203125" customWidth="1"/>
-    <col min="8704" max="8704" width="9.109375" customWidth="1"/>
-    <col min="8705" max="8705" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8706" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="16.109375" customWidth="1"/>
-    <col min="8708" max="8708" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="27.109375" customWidth="1"/>
-    <col min="8959" max="8959" width="13.33203125" customWidth="1"/>
-    <col min="8960" max="8960" width="9.109375" customWidth="1"/>
-    <col min="8961" max="8961" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8962" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="16.109375" customWidth="1"/>
-    <col min="8964" max="8964" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="27.109375" customWidth="1"/>
-    <col min="9215" max="9215" width="13.33203125" customWidth="1"/>
-    <col min="9216" max="9216" width="9.109375" customWidth="1"/>
-    <col min="9217" max="9217" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9218" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="16.109375" customWidth="1"/>
-    <col min="9220" max="9220" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="27.109375" customWidth="1"/>
-    <col min="9471" max="9471" width="13.33203125" customWidth="1"/>
-    <col min="9472" max="9472" width="9.109375" customWidth="1"/>
-    <col min="9473" max="9473" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9474" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="16.109375" customWidth="1"/>
-    <col min="9476" max="9476" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="27.109375" customWidth="1"/>
-    <col min="9727" max="9727" width="13.33203125" customWidth="1"/>
-    <col min="9728" max="9728" width="9.109375" customWidth="1"/>
-    <col min="9729" max="9729" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9730" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="16.109375" customWidth="1"/>
-    <col min="9732" max="9732" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="27.109375" customWidth="1"/>
-    <col min="9983" max="9983" width="13.33203125" customWidth="1"/>
-    <col min="9984" max="9984" width="9.109375" customWidth="1"/>
-    <col min="9985" max="9985" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9986" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="16.109375" customWidth="1"/>
-    <col min="9988" max="9988" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="27.109375" customWidth="1"/>
-    <col min="10239" max="10239" width="13.33203125" customWidth="1"/>
-    <col min="10240" max="10240" width="9.109375" customWidth="1"/>
-    <col min="10241" max="10241" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10242" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="16.109375" customWidth="1"/>
-    <col min="10244" max="10244" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="27.109375" customWidth="1"/>
-    <col min="10495" max="10495" width="13.33203125" customWidth="1"/>
-    <col min="10496" max="10496" width="9.109375" customWidth="1"/>
-    <col min="10497" max="10497" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10498" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="16.109375" customWidth="1"/>
-    <col min="10500" max="10500" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="27.109375" customWidth="1"/>
-    <col min="10751" max="10751" width="13.33203125" customWidth="1"/>
-    <col min="10752" max="10752" width="9.109375" customWidth="1"/>
-    <col min="10753" max="10753" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10754" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="16.109375" customWidth="1"/>
-    <col min="10756" max="10756" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="27.109375" customWidth="1"/>
-    <col min="11007" max="11007" width="13.33203125" customWidth="1"/>
-    <col min="11008" max="11008" width="9.109375" customWidth="1"/>
-    <col min="11009" max="11009" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11010" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="16.109375" customWidth="1"/>
-    <col min="11012" max="11012" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="27.109375" customWidth="1"/>
-    <col min="11263" max="11263" width="13.33203125" customWidth="1"/>
-    <col min="11264" max="11264" width="9.109375" customWidth="1"/>
-    <col min="11265" max="11265" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11266" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="16.109375" customWidth="1"/>
-    <col min="11268" max="11268" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="27.109375" customWidth="1"/>
-    <col min="11519" max="11519" width="13.33203125" customWidth="1"/>
-    <col min="11520" max="11520" width="9.109375" customWidth="1"/>
-    <col min="11521" max="11521" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11522" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="16.109375" customWidth="1"/>
-    <col min="11524" max="11524" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="27.109375" customWidth="1"/>
-    <col min="11775" max="11775" width="13.33203125" customWidth="1"/>
-    <col min="11776" max="11776" width="9.109375" customWidth="1"/>
-    <col min="11777" max="11777" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11778" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="16.109375" customWidth="1"/>
-    <col min="11780" max="11780" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="27.109375" customWidth="1"/>
-    <col min="12031" max="12031" width="13.33203125" customWidth="1"/>
-    <col min="12032" max="12032" width="9.109375" customWidth="1"/>
-    <col min="12033" max="12033" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12034" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="16.109375" customWidth="1"/>
-    <col min="12036" max="12036" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="27.109375" customWidth="1"/>
-    <col min="12287" max="12287" width="13.33203125" customWidth="1"/>
-    <col min="12288" max="12288" width="9.109375" customWidth="1"/>
-    <col min="12289" max="12289" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12290" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="16.109375" customWidth="1"/>
-    <col min="12292" max="12292" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="27.109375" customWidth="1"/>
-    <col min="12543" max="12543" width="13.33203125" customWidth="1"/>
-    <col min="12544" max="12544" width="9.109375" customWidth="1"/>
-    <col min="12545" max="12545" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12546" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="16.109375" customWidth="1"/>
-    <col min="12548" max="12548" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="27.109375" customWidth="1"/>
-    <col min="12799" max="12799" width="13.33203125" customWidth="1"/>
-    <col min="12800" max="12800" width="9.109375" customWidth="1"/>
-    <col min="12801" max="12801" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12802" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="16.109375" customWidth="1"/>
-    <col min="12804" max="12804" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="27.109375" customWidth="1"/>
-    <col min="13055" max="13055" width="13.33203125" customWidth="1"/>
-    <col min="13056" max="13056" width="9.109375" customWidth="1"/>
-    <col min="13057" max="13057" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="16.109375" customWidth="1"/>
-    <col min="13060" max="13060" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="27.109375" customWidth="1"/>
-    <col min="13311" max="13311" width="13.33203125" customWidth="1"/>
-    <col min="13312" max="13312" width="9.109375" customWidth="1"/>
-    <col min="13313" max="13313" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13314" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="16.109375" customWidth="1"/>
-    <col min="13316" max="13316" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="27.109375" customWidth="1"/>
-    <col min="13567" max="13567" width="13.33203125" customWidth="1"/>
-    <col min="13568" max="13568" width="9.109375" customWidth="1"/>
-    <col min="13569" max="13569" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13570" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="16.109375" customWidth="1"/>
-    <col min="13572" max="13572" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="27.109375" customWidth="1"/>
-    <col min="13823" max="13823" width="13.33203125" customWidth="1"/>
-    <col min="13824" max="13824" width="9.109375" customWidth="1"/>
-    <col min="13825" max="13825" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13826" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="16.109375" customWidth="1"/>
-    <col min="13828" max="13828" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="27.109375" customWidth="1"/>
-    <col min="14079" max="14079" width="13.33203125" customWidth="1"/>
-    <col min="14080" max="14080" width="9.109375" customWidth="1"/>
-    <col min="14081" max="14081" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14082" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="16.109375" customWidth="1"/>
-    <col min="14084" max="14084" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="27.109375" customWidth="1"/>
-    <col min="14335" max="14335" width="13.33203125" customWidth="1"/>
-    <col min="14336" max="14336" width="9.109375" customWidth="1"/>
-    <col min="14337" max="14337" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14338" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="16.109375" customWidth="1"/>
-    <col min="14340" max="14340" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="27.109375" customWidth="1"/>
-    <col min="14591" max="14591" width="13.33203125" customWidth="1"/>
-    <col min="14592" max="14592" width="9.109375" customWidth="1"/>
-    <col min="14593" max="14593" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14594" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="16.109375" customWidth="1"/>
-    <col min="14596" max="14596" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="27.109375" customWidth="1"/>
-    <col min="14847" max="14847" width="13.33203125" customWidth="1"/>
-    <col min="14848" max="14848" width="9.109375" customWidth="1"/>
-    <col min="14849" max="14849" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14850" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="16.109375" customWidth="1"/>
-    <col min="14852" max="14852" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="27.109375" customWidth="1"/>
-    <col min="15103" max="15103" width="13.33203125" customWidth="1"/>
-    <col min="15104" max="15104" width="9.109375" customWidth="1"/>
-    <col min="15105" max="15105" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15106" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="16.109375" customWidth="1"/>
-    <col min="15108" max="15108" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="27.109375" customWidth="1"/>
-    <col min="15359" max="15359" width="13.33203125" customWidth="1"/>
-    <col min="15360" max="15360" width="9.109375" customWidth="1"/>
-    <col min="15361" max="15361" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15362" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="16.109375" customWidth="1"/>
-    <col min="15364" max="15364" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="27.109375" customWidth="1"/>
-    <col min="15615" max="15615" width="13.33203125" customWidth="1"/>
-    <col min="15616" max="15616" width="9.109375" customWidth="1"/>
-    <col min="15617" max="15617" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15618" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="16.109375" customWidth="1"/>
-    <col min="15620" max="15620" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="27.109375" customWidth="1"/>
-    <col min="15871" max="15871" width="13.33203125" customWidth="1"/>
-    <col min="15872" max="15872" width="9.109375" customWidth="1"/>
-    <col min="15873" max="15873" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15874" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="16.109375" customWidth="1"/>
-    <col min="15876" max="15876" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="27.109375" customWidth="1"/>
-    <col min="16127" max="16127" width="13.33203125" customWidth="1"/>
-    <col min="16128" max="16128" width="9.109375" customWidth="1"/>
-    <col min="16129" max="16129" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16130" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="16.109375" customWidth="1"/>
-    <col min="16132" max="16132" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.08984375" customWidth="1"/>
+    <col min="255" max="255" width="13.36328125" customWidth="1"/>
+    <col min="256" max="256" width="9.08984375" customWidth="1"/>
+    <col min="257" max="257" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="16.08984375" customWidth="1"/>
+    <col min="260" max="260" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="27.08984375" customWidth="1"/>
+    <col min="511" max="511" width="13.36328125" customWidth="1"/>
+    <col min="512" max="512" width="9.08984375" customWidth="1"/>
+    <col min="513" max="513" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="16.08984375" customWidth="1"/>
+    <col min="516" max="516" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="27.08984375" customWidth="1"/>
+    <col min="767" max="767" width="13.36328125" customWidth="1"/>
+    <col min="768" max="768" width="9.08984375" customWidth="1"/>
+    <col min="769" max="769" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="16.08984375" customWidth="1"/>
+    <col min="772" max="772" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="27.08984375" customWidth="1"/>
+    <col min="1023" max="1023" width="13.36328125" customWidth="1"/>
+    <col min="1024" max="1024" width="9.08984375" customWidth="1"/>
+    <col min="1025" max="1025" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="16.08984375" customWidth="1"/>
+    <col min="1028" max="1028" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="27.08984375" customWidth="1"/>
+    <col min="1279" max="1279" width="13.36328125" customWidth="1"/>
+    <col min="1280" max="1280" width="9.08984375" customWidth="1"/>
+    <col min="1281" max="1281" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="16.08984375" customWidth="1"/>
+    <col min="1284" max="1284" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="27.08984375" customWidth="1"/>
+    <col min="1535" max="1535" width="13.36328125" customWidth="1"/>
+    <col min="1536" max="1536" width="9.08984375" customWidth="1"/>
+    <col min="1537" max="1537" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="16.08984375" customWidth="1"/>
+    <col min="1540" max="1540" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="27.08984375" customWidth="1"/>
+    <col min="1791" max="1791" width="13.36328125" customWidth="1"/>
+    <col min="1792" max="1792" width="9.08984375" customWidth="1"/>
+    <col min="1793" max="1793" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="16.08984375" customWidth="1"/>
+    <col min="1796" max="1796" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="27.08984375" customWidth="1"/>
+    <col min="2047" max="2047" width="13.36328125" customWidth="1"/>
+    <col min="2048" max="2048" width="9.08984375" customWidth="1"/>
+    <col min="2049" max="2049" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="16.08984375" customWidth="1"/>
+    <col min="2052" max="2052" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="27.08984375" customWidth="1"/>
+    <col min="2303" max="2303" width="13.36328125" customWidth="1"/>
+    <col min="2304" max="2304" width="9.08984375" customWidth="1"/>
+    <col min="2305" max="2305" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="16.08984375" customWidth="1"/>
+    <col min="2308" max="2308" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="27.08984375" customWidth="1"/>
+    <col min="2559" max="2559" width="13.36328125" customWidth="1"/>
+    <col min="2560" max="2560" width="9.08984375" customWidth="1"/>
+    <col min="2561" max="2561" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="16.08984375" customWidth="1"/>
+    <col min="2564" max="2564" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="27.08984375" customWidth="1"/>
+    <col min="2815" max="2815" width="13.36328125" customWidth="1"/>
+    <col min="2816" max="2816" width="9.08984375" customWidth="1"/>
+    <col min="2817" max="2817" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="16.08984375" customWidth="1"/>
+    <col min="2820" max="2820" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="27.08984375" customWidth="1"/>
+    <col min="3071" max="3071" width="13.36328125" customWidth="1"/>
+    <col min="3072" max="3072" width="9.08984375" customWidth="1"/>
+    <col min="3073" max="3073" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="16.08984375" customWidth="1"/>
+    <col min="3076" max="3076" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="27.08984375" customWidth="1"/>
+    <col min="3327" max="3327" width="13.36328125" customWidth="1"/>
+    <col min="3328" max="3328" width="9.08984375" customWidth="1"/>
+    <col min="3329" max="3329" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="16.08984375" customWidth="1"/>
+    <col min="3332" max="3332" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="27.08984375" customWidth="1"/>
+    <col min="3583" max="3583" width="13.36328125" customWidth="1"/>
+    <col min="3584" max="3584" width="9.08984375" customWidth="1"/>
+    <col min="3585" max="3585" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="16.08984375" customWidth="1"/>
+    <col min="3588" max="3588" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="27.08984375" customWidth="1"/>
+    <col min="3839" max="3839" width="13.36328125" customWidth="1"/>
+    <col min="3840" max="3840" width="9.08984375" customWidth="1"/>
+    <col min="3841" max="3841" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="16.08984375" customWidth="1"/>
+    <col min="3844" max="3844" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="27.08984375" customWidth="1"/>
+    <col min="4095" max="4095" width="13.36328125" customWidth="1"/>
+    <col min="4096" max="4096" width="9.08984375" customWidth="1"/>
+    <col min="4097" max="4097" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="16.08984375" customWidth="1"/>
+    <col min="4100" max="4100" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="27.08984375" customWidth="1"/>
+    <col min="4351" max="4351" width="13.36328125" customWidth="1"/>
+    <col min="4352" max="4352" width="9.08984375" customWidth="1"/>
+    <col min="4353" max="4353" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="16.08984375" customWidth="1"/>
+    <col min="4356" max="4356" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="27.08984375" customWidth="1"/>
+    <col min="4607" max="4607" width="13.36328125" customWidth="1"/>
+    <col min="4608" max="4608" width="9.08984375" customWidth="1"/>
+    <col min="4609" max="4609" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="16.08984375" customWidth="1"/>
+    <col min="4612" max="4612" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="27.08984375" customWidth="1"/>
+    <col min="4863" max="4863" width="13.36328125" customWidth="1"/>
+    <col min="4864" max="4864" width="9.08984375" customWidth="1"/>
+    <col min="4865" max="4865" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="16.08984375" customWidth="1"/>
+    <col min="4868" max="4868" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="27.08984375" customWidth="1"/>
+    <col min="5119" max="5119" width="13.36328125" customWidth="1"/>
+    <col min="5120" max="5120" width="9.08984375" customWidth="1"/>
+    <col min="5121" max="5121" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="16.08984375" customWidth="1"/>
+    <col min="5124" max="5124" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="27.08984375" customWidth="1"/>
+    <col min="5375" max="5375" width="13.36328125" customWidth="1"/>
+    <col min="5376" max="5376" width="9.08984375" customWidth="1"/>
+    <col min="5377" max="5377" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="16.08984375" customWidth="1"/>
+    <col min="5380" max="5380" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="27.08984375" customWidth="1"/>
+    <col min="5631" max="5631" width="13.36328125" customWidth="1"/>
+    <col min="5632" max="5632" width="9.08984375" customWidth="1"/>
+    <col min="5633" max="5633" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="16.08984375" customWidth="1"/>
+    <col min="5636" max="5636" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="27.08984375" customWidth="1"/>
+    <col min="5887" max="5887" width="13.36328125" customWidth="1"/>
+    <col min="5888" max="5888" width="9.08984375" customWidth="1"/>
+    <col min="5889" max="5889" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="16.08984375" customWidth="1"/>
+    <col min="5892" max="5892" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="27.08984375" customWidth="1"/>
+    <col min="6143" max="6143" width="13.36328125" customWidth="1"/>
+    <col min="6144" max="6144" width="9.08984375" customWidth="1"/>
+    <col min="6145" max="6145" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="16.08984375" customWidth="1"/>
+    <col min="6148" max="6148" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="27.08984375" customWidth="1"/>
+    <col min="6399" max="6399" width="13.36328125" customWidth="1"/>
+    <col min="6400" max="6400" width="9.08984375" customWidth="1"/>
+    <col min="6401" max="6401" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="16.08984375" customWidth="1"/>
+    <col min="6404" max="6404" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="27.08984375" customWidth="1"/>
+    <col min="6655" max="6655" width="13.36328125" customWidth="1"/>
+    <col min="6656" max="6656" width="9.08984375" customWidth="1"/>
+    <col min="6657" max="6657" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="16.08984375" customWidth="1"/>
+    <col min="6660" max="6660" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="27.08984375" customWidth="1"/>
+    <col min="6911" max="6911" width="13.36328125" customWidth="1"/>
+    <col min="6912" max="6912" width="9.08984375" customWidth="1"/>
+    <col min="6913" max="6913" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="16.08984375" customWidth="1"/>
+    <col min="6916" max="6916" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="27.08984375" customWidth="1"/>
+    <col min="7167" max="7167" width="13.36328125" customWidth="1"/>
+    <col min="7168" max="7168" width="9.08984375" customWidth="1"/>
+    <col min="7169" max="7169" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="16.08984375" customWidth="1"/>
+    <col min="7172" max="7172" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="27.08984375" customWidth="1"/>
+    <col min="7423" max="7423" width="13.36328125" customWidth="1"/>
+    <col min="7424" max="7424" width="9.08984375" customWidth="1"/>
+    <col min="7425" max="7425" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="16.08984375" customWidth="1"/>
+    <col min="7428" max="7428" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="27.08984375" customWidth="1"/>
+    <col min="7679" max="7679" width="13.36328125" customWidth="1"/>
+    <col min="7680" max="7680" width="9.08984375" customWidth="1"/>
+    <col min="7681" max="7681" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="16.08984375" customWidth="1"/>
+    <col min="7684" max="7684" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="27.08984375" customWidth="1"/>
+    <col min="7935" max="7935" width="13.36328125" customWidth="1"/>
+    <col min="7936" max="7936" width="9.08984375" customWidth="1"/>
+    <col min="7937" max="7937" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="16.08984375" customWidth="1"/>
+    <col min="7940" max="7940" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="27.08984375" customWidth="1"/>
+    <col min="8191" max="8191" width="13.36328125" customWidth="1"/>
+    <col min="8192" max="8192" width="9.08984375" customWidth="1"/>
+    <col min="8193" max="8193" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="16.08984375" customWidth="1"/>
+    <col min="8196" max="8196" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="27.08984375" customWidth="1"/>
+    <col min="8447" max="8447" width="13.36328125" customWidth="1"/>
+    <col min="8448" max="8448" width="9.08984375" customWidth="1"/>
+    <col min="8449" max="8449" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="16.08984375" customWidth="1"/>
+    <col min="8452" max="8452" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="27.08984375" customWidth="1"/>
+    <col min="8703" max="8703" width="13.36328125" customWidth="1"/>
+    <col min="8704" max="8704" width="9.08984375" customWidth="1"/>
+    <col min="8705" max="8705" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="16.08984375" customWidth="1"/>
+    <col min="8708" max="8708" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="27.08984375" customWidth="1"/>
+    <col min="8959" max="8959" width="13.36328125" customWidth="1"/>
+    <col min="8960" max="8960" width="9.08984375" customWidth="1"/>
+    <col min="8961" max="8961" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="16.08984375" customWidth="1"/>
+    <col min="8964" max="8964" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="27.08984375" customWidth="1"/>
+    <col min="9215" max="9215" width="13.36328125" customWidth="1"/>
+    <col min="9216" max="9216" width="9.08984375" customWidth="1"/>
+    <col min="9217" max="9217" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="16.08984375" customWidth="1"/>
+    <col min="9220" max="9220" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="27.08984375" customWidth="1"/>
+    <col min="9471" max="9471" width="13.36328125" customWidth="1"/>
+    <col min="9472" max="9472" width="9.08984375" customWidth="1"/>
+    <col min="9473" max="9473" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="16.08984375" customWidth="1"/>
+    <col min="9476" max="9476" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="27.08984375" customWidth="1"/>
+    <col min="9727" max="9727" width="13.36328125" customWidth="1"/>
+    <col min="9728" max="9728" width="9.08984375" customWidth="1"/>
+    <col min="9729" max="9729" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="16.08984375" customWidth="1"/>
+    <col min="9732" max="9732" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="27.08984375" customWidth="1"/>
+    <col min="9983" max="9983" width="13.36328125" customWidth="1"/>
+    <col min="9984" max="9984" width="9.08984375" customWidth="1"/>
+    <col min="9985" max="9985" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="16.08984375" customWidth="1"/>
+    <col min="9988" max="9988" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="27.08984375" customWidth="1"/>
+    <col min="10239" max="10239" width="13.36328125" customWidth="1"/>
+    <col min="10240" max="10240" width="9.08984375" customWidth="1"/>
+    <col min="10241" max="10241" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="16.08984375" customWidth="1"/>
+    <col min="10244" max="10244" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="27.08984375" customWidth="1"/>
+    <col min="10495" max="10495" width="13.36328125" customWidth="1"/>
+    <col min="10496" max="10496" width="9.08984375" customWidth="1"/>
+    <col min="10497" max="10497" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="16.08984375" customWidth="1"/>
+    <col min="10500" max="10500" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="27.08984375" customWidth="1"/>
+    <col min="10751" max="10751" width="13.36328125" customWidth="1"/>
+    <col min="10752" max="10752" width="9.08984375" customWidth="1"/>
+    <col min="10753" max="10753" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="16.08984375" customWidth="1"/>
+    <col min="10756" max="10756" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="27.08984375" customWidth="1"/>
+    <col min="11007" max="11007" width="13.36328125" customWidth="1"/>
+    <col min="11008" max="11008" width="9.08984375" customWidth="1"/>
+    <col min="11009" max="11009" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="16.08984375" customWidth="1"/>
+    <col min="11012" max="11012" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="27.08984375" customWidth="1"/>
+    <col min="11263" max="11263" width="13.36328125" customWidth="1"/>
+    <col min="11264" max="11264" width="9.08984375" customWidth="1"/>
+    <col min="11265" max="11265" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="16.08984375" customWidth="1"/>
+    <col min="11268" max="11268" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="27.08984375" customWidth="1"/>
+    <col min="11519" max="11519" width="13.36328125" customWidth="1"/>
+    <col min="11520" max="11520" width="9.08984375" customWidth="1"/>
+    <col min="11521" max="11521" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="16.08984375" customWidth="1"/>
+    <col min="11524" max="11524" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="27.08984375" customWidth="1"/>
+    <col min="11775" max="11775" width="13.36328125" customWidth="1"/>
+    <col min="11776" max="11776" width="9.08984375" customWidth="1"/>
+    <col min="11777" max="11777" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="16.08984375" customWidth="1"/>
+    <col min="11780" max="11780" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="27.08984375" customWidth="1"/>
+    <col min="12031" max="12031" width="13.36328125" customWidth="1"/>
+    <col min="12032" max="12032" width="9.08984375" customWidth="1"/>
+    <col min="12033" max="12033" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="16.08984375" customWidth="1"/>
+    <col min="12036" max="12036" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="27.08984375" customWidth="1"/>
+    <col min="12287" max="12287" width="13.36328125" customWidth="1"/>
+    <col min="12288" max="12288" width="9.08984375" customWidth="1"/>
+    <col min="12289" max="12289" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="16.08984375" customWidth="1"/>
+    <col min="12292" max="12292" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="27.08984375" customWidth="1"/>
+    <col min="12543" max="12543" width="13.36328125" customWidth="1"/>
+    <col min="12544" max="12544" width="9.08984375" customWidth="1"/>
+    <col min="12545" max="12545" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="16.08984375" customWidth="1"/>
+    <col min="12548" max="12548" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="27.08984375" customWidth="1"/>
+    <col min="12799" max="12799" width="13.36328125" customWidth="1"/>
+    <col min="12800" max="12800" width="9.08984375" customWidth="1"/>
+    <col min="12801" max="12801" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="16.08984375" customWidth="1"/>
+    <col min="12804" max="12804" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="27.08984375" customWidth="1"/>
+    <col min="13055" max="13055" width="13.36328125" customWidth="1"/>
+    <col min="13056" max="13056" width="9.08984375" customWidth="1"/>
+    <col min="13057" max="13057" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="16.08984375" customWidth="1"/>
+    <col min="13060" max="13060" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="27.08984375" customWidth="1"/>
+    <col min="13311" max="13311" width="13.36328125" customWidth="1"/>
+    <col min="13312" max="13312" width="9.08984375" customWidth="1"/>
+    <col min="13313" max="13313" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="16.08984375" customWidth="1"/>
+    <col min="13316" max="13316" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="27.08984375" customWidth="1"/>
+    <col min="13567" max="13567" width="13.36328125" customWidth="1"/>
+    <col min="13568" max="13568" width="9.08984375" customWidth="1"/>
+    <col min="13569" max="13569" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="16.08984375" customWidth="1"/>
+    <col min="13572" max="13572" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="27.08984375" customWidth="1"/>
+    <col min="13823" max="13823" width="13.36328125" customWidth="1"/>
+    <col min="13824" max="13824" width="9.08984375" customWidth="1"/>
+    <col min="13825" max="13825" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="16.08984375" customWidth="1"/>
+    <col min="13828" max="13828" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="27.08984375" customWidth="1"/>
+    <col min="14079" max="14079" width="13.36328125" customWidth="1"/>
+    <col min="14080" max="14080" width="9.08984375" customWidth="1"/>
+    <col min="14081" max="14081" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="16.08984375" customWidth="1"/>
+    <col min="14084" max="14084" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="27.08984375" customWidth="1"/>
+    <col min="14335" max="14335" width="13.36328125" customWidth="1"/>
+    <col min="14336" max="14336" width="9.08984375" customWidth="1"/>
+    <col min="14337" max="14337" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="16.08984375" customWidth="1"/>
+    <col min="14340" max="14340" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="27.08984375" customWidth="1"/>
+    <col min="14591" max="14591" width="13.36328125" customWidth="1"/>
+    <col min="14592" max="14592" width="9.08984375" customWidth="1"/>
+    <col min="14593" max="14593" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="16.08984375" customWidth="1"/>
+    <col min="14596" max="14596" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="27.08984375" customWidth="1"/>
+    <col min="14847" max="14847" width="13.36328125" customWidth="1"/>
+    <col min="14848" max="14848" width="9.08984375" customWidth="1"/>
+    <col min="14849" max="14849" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="16.08984375" customWidth="1"/>
+    <col min="14852" max="14852" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="27.08984375" customWidth="1"/>
+    <col min="15103" max="15103" width="13.36328125" customWidth="1"/>
+    <col min="15104" max="15104" width="9.08984375" customWidth="1"/>
+    <col min="15105" max="15105" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="16.08984375" customWidth="1"/>
+    <col min="15108" max="15108" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="27.08984375" customWidth="1"/>
+    <col min="15359" max="15359" width="13.36328125" customWidth="1"/>
+    <col min="15360" max="15360" width="9.08984375" customWidth="1"/>
+    <col min="15361" max="15361" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="16.08984375" customWidth="1"/>
+    <col min="15364" max="15364" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="27.08984375" customWidth="1"/>
+    <col min="15615" max="15615" width="13.36328125" customWidth="1"/>
+    <col min="15616" max="15616" width="9.08984375" customWidth="1"/>
+    <col min="15617" max="15617" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="16.08984375" customWidth="1"/>
+    <col min="15620" max="15620" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="27.08984375" customWidth="1"/>
+    <col min="15871" max="15871" width="13.36328125" customWidth="1"/>
+    <col min="15872" max="15872" width="9.08984375" customWidth="1"/>
+    <col min="15873" max="15873" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="16.08984375" customWidth="1"/>
+    <col min="15876" max="15876" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="27.08984375" customWidth="1"/>
+    <col min="16127" max="16127" width="13.36328125" customWidth="1"/>
+    <col min="16128" max="16128" width="9.08984375" customWidth="1"/>
+    <col min="16129" max="16129" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="16.08984375" customWidth="1"/>
+    <col min="16132" max="16132" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="27.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1258,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1214,7 +1275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1231,7 +1292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1248,7 +1309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1265,7 +1326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1282,8 +1343,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1299,7 +1360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1316,7 +1377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1333,7 +1394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -1350,7 +1411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1367,7 +1428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -1384,7 +1445,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1401,7 +1462,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -1418,7 +1479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1435,7 +1496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -1452,7 +1513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1469,7 +1530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -1486,7 +1547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -1503,7 +1564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -1520,7 +1581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -1537,7 +1598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -1555,7 +1616,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -1573,7 +1634,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -1590,7 +1651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -1607,7 +1668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -1624,7 +1685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
@@ -1641,7 +1702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -1658,7 +1719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
@@ -1675,7 +1736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
@@ -1692,7 +1753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
@@ -1709,7 +1770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -1726,7 +1787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -1743,7 +1804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
@@ -1760,7 +1821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -1777,7 +1838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>73</v>
       </c>
@@ -1794,7 +1855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
@@ -1811,7 +1872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>77</v>
       </c>
@@ -1828,7 +1889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
